--- a/SERV_Open8_SOTB_PCB/serv_open8_sotb_bom.xlsx
+++ b/SERV_Open8_SOTB_PCB/serv_open8_sotb_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\SERV_OPEN8_Measurement\SERV_Open8_SOTB_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809BE49-FFAF-485C-A4EA-14864747AB64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDFFE77-2948-4E2E-A648-8080548DC923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Comment</t>
   </si>
@@ -72,16 +72,10 @@
     <t>C81934</t>
   </si>
   <si>
-    <t>C13997</t>
-  </si>
-  <si>
     <t>SOT-23-5</t>
   </si>
   <si>
     <t>SMD-3215_2P</t>
-  </si>
-  <si>
-    <t>SMD-CRY-3.8x13.5_2P</t>
   </si>
   <si>
     <r>
@@ -92,6 +86,7 @@
         <sz val="11"/>
         <color rgb="FFAFABAB"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（</t>
     </r>
@@ -109,190 +104,185 @@
         <sz val="11"/>
         <color rgb="FFAFABAB"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
   </si>
   <si>
+    <t>LED</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C2290</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C476766</t>
+  </si>
+  <si>
+    <t>R41, R45</t>
+  </si>
+  <si>
+    <t>C26108</t>
+  </si>
+  <si>
+    <t>C115309</t>
+  </si>
+  <si>
+    <t>C1804</t>
+  </si>
+  <si>
+    <t>R5, R8</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>C17604</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>300k</t>
+  </si>
+  <si>
+    <t>C17630</t>
+  </si>
+  <si>
+    <t>C24, C29</t>
+  </si>
+  <si>
+    <t>C327231</t>
+  </si>
+  <si>
+    <t>C2, C4, C6, C8, C10, C25</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>C17713</t>
+  </si>
+  <si>
+    <t>66.5k</t>
+  </si>
+  <si>
+    <t>C17791</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>IC12, IC13</t>
+  </si>
+  <si>
+    <t>SN74LVC1GU04DBVR</t>
+  </si>
+  <si>
+    <t>IC1, IC2, IC5, IC7, IC8, IC9</t>
+  </si>
+  <si>
     <t>LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, LED10, LED11, LED12</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>LED</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C2290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12, C27, C33, C34, C36, C38, C40, C42
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.1uF</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C476766</t>
-  </si>
-  <si>
-    <t>R3, R6, R9, R12, R15, R26</t>
-  </si>
-  <si>
-    <t>1Ohm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>C1, C3, C5, C7, C9, C22</t>
-  </si>
-  <si>
-    <t>C25288</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>R41, R45</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C24123</t>
   </si>
   <si>
     <t>10M</t>
-  </si>
-  <si>
-    <t>C26108</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>R17, R19, R21, R23, R28, R30, R32, R34, R35, R36, R38, R40, R50, R52, R53, R54, R55, R56</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C115309</t>
-  </si>
-  <si>
     <t>C11, C26, C28, C32, C35, C37, C39, C41</t>
-  </si>
-  <si>
-    <t>C1713</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>133k</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C17452</t>
   </si>
   <si>
     <t>C30, C31</t>
-  </si>
-  <si>
-    <t>C1804</t>
-  </si>
-  <si>
-    <t>R5, R8</t>
-  </si>
-  <si>
-    <t>243k</t>
-  </si>
-  <si>
-    <t>C17573</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C12, C27, C33, C34, C36, C38, C40, C42</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R2, R11, R14</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>R44</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>C17604</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>3.3k</t>
-  </si>
-  <si>
-    <t>C26010</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>300k</t>
-  </si>
-  <si>
-    <t>C25628</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C17616</t>
   </si>
   <si>
     <t>R16, R18, R20, R22, R27, R29, R31, R33, R37, R39, R49, R51</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>330Ohm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C17630</t>
-  </si>
-  <si>
-    <t>C24, C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36pF </t>
-  </si>
-  <si>
-    <t>C327231</t>
-  </si>
-  <si>
-    <t>C2, C4, C6, C8, C10, C25</t>
-  </si>
-  <si>
-    <t>C98195</t>
+    <t>36pF</t>
+  </si>
+  <si>
+    <t>C1779</t>
   </si>
   <si>
     <t>R42, R43, R46, R47</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>C17713</t>
-  </si>
-  <si>
-    <t>R2, R11, R14</t>
-  </si>
-  <si>
-    <t>53.6k</t>
-  </si>
-  <si>
-    <t>C21398</t>
-  </si>
-  <si>
-    <t>R1, R4, R7, R10, R13, R24</t>
-  </si>
-  <si>
-    <t>66.5k</t>
-  </si>
-  <si>
-    <t>C17791</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>482k</t>
+  </si>
+  <si>
+    <t>C17717</t>
+  </si>
+  <si>
+    <t>R1, R4, R7, R10, R13, R24, R25</t>
+  </si>
+  <si>
+    <t>AP7331-WG-7</t>
+  </si>
+  <si>
+    <t>C212322</t>
+  </si>
+  <si>
+    <t>SOT-25</t>
   </si>
   <si>
     <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q13FC1350000400      </t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>IC12, IC13</t>
-  </si>
-  <si>
-    <t>SN74LVC1GU04DBVR</t>
-  </si>
-  <si>
-    <t>IC1, IC2, IC5, IC7, IC8, IC9</t>
-  </si>
-  <si>
-    <t>TPS76201DBVR</t>
+    <t>SMD-CRY-3.8x13.5_2P</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Q13FC1350000400</t>
   </si>
 </sst>
 </file>
@@ -310,6 +300,7 @@
       <sz val="11"/>
       <color rgb="FFAFABAB"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -392,13 +383,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,44 +415,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +827,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -849,352 +841,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="47.25">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5">
+        <v>805</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="47.25">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5">
+        <v>805</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10">
-        <v>805</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5">
+        <v>805</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="C5" s="5">
+        <v>805</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>805</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="10">
-        <v>805</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="31.5">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5">
+        <v>805</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>805</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5">
+        <v>805</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5">
+        <v>805</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>805</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5">
+      <c r="A12" s="5">
+        <v>330</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5">
+        <v>805</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>805</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <v>805</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5">
+        <v>805</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10">
-        <v>805</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10">
-        <v>805</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="10">
-        <v>805</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="47.25">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10">
-        <v>805</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="10">
-        <v>805</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C16" s="5">
+        <v>805</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5">
+        <v>805</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10">
-        <v>805</v>
-      </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="8" t="s">
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10">
-        <v>805</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="10">
-        <v>805</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10">
-        <v>805</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="10">
-        <v>805</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10">
-        <v>805</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10">
-        <v>805</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="10">
-        <v>805</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="10">
-        <v>805</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="10">
-        <v>805</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="10">
-        <v>805</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
